--- a/U233_MET_FAST_002/U233_MET_FAST_002_001/U233_MET_FAST_002_001.xlsx
+++ b/U233_MET_FAST_002/U233_MET_FAST_002_001/U233_MET_FAST_002_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\U233_MET_FAST_002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\U233_MET_FAST_002\U233_MET_FAST_002_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6416FA89-552C-46AF-9C7B-02CF8A75E2AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D91597-2FF2-46BC-AEC6-03F4DB9A5165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12107" yWindow="2647" windowWidth="9600" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,6 +552,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -565,33 +592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,20 +613,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1282285" cy="1281216"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>636694</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F677050-5AB3-4FD4-8BB5-91AC4DCD112B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95ACA68B-3D0C-4868-8003-2D9847216483}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8987367" y="0"/>
-          <a:ext cx="1282285" cy="1281216"/>
+          <a:ext cx="1280160" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,21 +656,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1282285" cy="1281216"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>636694</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0E583F-DD83-4A0D-A34B-7714A33DBB3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1801D356-BE97-4A05-938B-32BD3706ACCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8987367" y="1316567"/>
-          <a:ext cx="1282285" cy="1281216"/>
+          <a:ext cx="1280160" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,7 +700,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -959,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -974,13 +984,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="G1" s="39" t="s">
         <v>32</v>
       </c>
@@ -990,31 +1000,31 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="G2" s="51" t="s">
+      <c r="E2" s="52"/>
+      <c r="G2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="52"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="54"/>
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1065,19 +1075,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="12">
-        <v>0.99728799999999995</v>
+        <v>0.99744699999999997</v>
       </c>
       <c r="C6" s="13">
-        <v>2.1199999999999999E-3</v>
-      </c>
-      <c r="D6" s="47">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="D6" s="56">
         <v>0.99690000000000001</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="58">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -1088,15 +1098,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="46"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14">
-        <v>0.99361999999999995</v>
+        <v>0.99405900000000003</v>
       </c>
       <c r="C7" s="15">
-        <v>2.0699999999999998E-3</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="49"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="58"/>
       <c r="G7" s="16" t="s">
         <v>18</v>
       </c>
@@ -1105,32 +1115,32 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="14">
-        <v>3.64533E-3</v>
+        <v>3.3268E-3</v>
       </c>
       <c r="C8" s="15">
-        <v>3.567E-2</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="49"/>
-      <c r="G8" s="51" t="s">
+        <v>2.3980000000000001E-2</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="58"/>
+      <c r="G8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="14">
-        <v>0.99773100000000003</v>
+        <v>0.99919100000000005</v>
       </c>
       <c r="C9" s="15">
-        <v>1.41E-3</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="49"/>
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="58"/>
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1143,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="14">
-        <v>0.998139</v>
+        <v>1.0003</v>
       </c>
       <c r="C10" s="15">
-        <v>1.57E-3</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="58"/>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1162,13 +1172,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="14">
-        <v>0.99773100000000003</v>
+        <v>0.99919100000000005</v>
       </c>
       <c r="C11" s="15">
-        <v>1.41E-3</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="50"/>
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="59"/>
       <c r="G11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1181,10 +1191,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="21">
-        <v>2.5383499999999999</v>
+        <v>2.5386799999999998</v>
       </c>
       <c r="C12" s="22">
-        <v>2.5000000000000001E-4</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>18</v>
@@ -1276,7 +1286,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="31">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="31">
@@ -1302,7 +1312,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="31">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="31">
@@ -1316,7 +1326,7 @@
       </c>
       <c r="B24" s="33">
         <f>B21*(B22-B23)</f>
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="33">
